--- a/設計書/02_オンライン設計書/SQL設計書.xlsx
+++ b/設計書/02_オンライン設計書/SQL設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="3" r:id="rId1"/>
@@ -28,19 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>SQLID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県名</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -62,14 +52,6 @@
     <rPh sb="0" eb="4">
       <t>ニュウリョクコウモク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>陽性者数の情報の更新日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>陽性者数</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -469,6 +451,69 @@
   </si>
   <si>
     <t>name_ja　AS　都道府県名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,T2.LOCAL_ID AS 地方分類ID</t>
+    <rPh sb="16" eb="20">
+      <t>チホウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> M_LOCAL_MNG T2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T1.NAME_JA = T2.NAME_JA</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T1.ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,13 +1023,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -992,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1003,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1014,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1025,10 +1070,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1078,7 +1123,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1126,7 +1171,7 @@
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
@@ -1148,7 +1193,7 @@
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1169,7 +1214,7 @@
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1190,7 +1235,7 @@
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1211,7 +1256,7 @@
     <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1232,7 +1277,7 @@
     <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1253,7 +1298,7 @@
     <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1273,7 +1318,7 @@
     </row>
     <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
@@ -1295,7 +1340,7 @@
     <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1315,7 +1360,7 @@
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1345,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1358,7 +1403,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1383,7 +1428,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1407,62 +1452,59 @@
       <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1481,14 +1523,15 @@
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1503,16 +1546,14 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1528,12 +1569,10 @@
     </row>
     <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1552,10 +1591,12 @@
     </row>
     <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1573,11 +1614,9 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
@@ -1599,8 +1638,12 @@
     <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1617,9 +1660,71 @@
       <c r="T11" s="8"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="12"/>
+    </row>
     <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1630,49 +1735,13 @@
     <row r="22" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
-    </row>
+    <row r="25" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
+    <row r="27" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1881,7 +1950,46 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1904,7 +2012,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1930,7 +2038,7 @@
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1980,7 +2088,7 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2004,10 +2112,10 @@
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8"/>
       <c r="G5" s="8"/>
@@ -2029,10 +2137,10 @@
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8"/>
       <c r="F6" s="8"/>
@@ -2054,10 +2162,10 @@
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -2079,10 +2187,10 @@
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
@@ -2104,10 +2212,10 @@
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
@@ -2129,10 +2237,10 @@
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
@@ -2154,10 +2262,10 @@
     </row>
     <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
@@ -2179,10 +2287,10 @@
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2203,10 +2311,10 @@
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2226,16 +2334,16 @@
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2252,10 +2360,10 @@
     </row>
     <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2276,7 +2384,7 @@
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2299,10 +2407,10 @@
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -2324,10 +2432,10 @@
     </row>
     <row r="18" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -2349,10 +2457,10 @@
     </row>
     <row r="19" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2373,11 +2481,11 @@
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2398,10 +2506,10 @@
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2422,10 +2530,10 @@
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2446,10 +2554,10 @@
     </row>
     <row r="23" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -2471,10 +2579,10 @@
     </row>
     <row r="24" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -2496,129 +2604,129 @@
     </row>
     <row r="25" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2628,11 +2736,11 @@
     </row>
     <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3"/>
       <c r="H41" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2643,12 +2751,12 @@
     </row>
     <row r="42" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2658,11 +2766,11 @@
     </row>
     <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3"/>
       <c r="H43" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2673,12 +2781,12 @@
     </row>
     <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2688,11 +2796,11 @@
     </row>
     <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2704,11 +2812,11 @@
     </row>
     <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3"/>
       <c r="H46" s="3"/>
@@ -2721,10 +2829,10 @@
     </row>
     <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E47" s="3"/>
       <c r="H47" s="3"/>
@@ -2737,10 +2845,10 @@
     </row>
     <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E48" s="3"/>
       <c r="H48" s="3"/>
@@ -2753,10 +2861,10 @@
     </row>
     <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E49" s="3"/>
       <c r="H49" s="3"/>
@@ -2769,10 +2877,10 @@
     </row>
     <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E50" s="3"/>
       <c r="H50" s="3"/>
@@ -2785,10 +2893,10 @@
     </row>
     <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E51" s="3"/>
       <c r="H51" s="3"/>
@@ -2802,7 +2910,7 @@
     <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E52" s="3"/>
       <c r="H52" s="3"/>
@@ -2815,11 +2923,11 @@
     </row>
     <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E53" s="3"/>
       <c r="H53" s="3"/>
@@ -2832,11 +2940,11 @@
     </row>
     <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2848,11 +2956,11 @@
     </row>
     <row r="55" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2864,11 +2972,11 @@
     </row>
     <row r="56" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2880,11 +2988,11 @@
     </row>
     <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2896,11 +3004,11 @@
     </row>
     <row r="58" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -2912,44 +3020,44 @@
     </row>
     <row r="59" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E63" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +3082,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2999,7 +3107,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3047,7 +3155,7 @@
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
@@ -3068,10 +3176,10 @@
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3090,7 +3198,7 @@
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="H6" s="8"/>
@@ -3109,10 +3217,10 @@
     </row>
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3"/>
       <c r="H7" s="3"/>

--- a/設計書/02_オンライン設計書/SQL設計書.xlsx
+++ b/設計書/02_オンライン設計書/SQL設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>SQLID</t>
     <phoneticPr fontId="1"/>
@@ -72,9 +72,6 @@
   <si>
     <t>SQL-ONLINE-S02</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SQL-ONLINE-S03</t>
   </si>
   <si>
     <t>SQL-ONLINE-S03</t>
@@ -1009,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1037,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1051,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1059,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1070,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1193,7 +1190,7 @@
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1214,7 +1211,7 @@
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1235,7 +1232,7 @@
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1256,7 +1253,7 @@
     <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1277,7 +1274,7 @@
     <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1298,7 +1295,7 @@
     <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1340,7 +1337,7 @@
     <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1392,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8"/>
       <c r="G5" s="8"/>
@@ -1523,10 +1520,10 @@
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
@@ -1548,7 +1545,7 @@
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
@@ -1591,10 +1588,10 @@
     </row>
     <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
@@ -1616,7 +1613,7 @@
     <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
@@ -1639,10 +1636,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="8"/>
@@ -1685,7 +1682,7 @@
     <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="8"/>
       <c r="G13" s="3"/>
@@ -2002,7 +1999,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2088,7 +2085,7 @@
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2115,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8"/>
       <c r="G5" s="8"/>
@@ -2140,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8"/>
       <c r="F6" s="8"/>
@@ -2165,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -2190,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
@@ -2215,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
@@ -2240,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
@@ -2265,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
@@ -2287,10 +2284,10 @@
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2311,10 +2308,10 @@
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2334,17 +2331,15 @@
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2360,10 +2355,10 @@
     </row>
     <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2384,7 +2379,7 @@
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2410,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -2435,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -2457,10 +2452,10 @@
     </row>
     <row r="19" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2481,11 +2476,11 @@
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2506,10 +2501,10 @@
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2530,10 +2525,10 @@
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2557,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
@@ -2582,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
@@ -2607,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2615,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2623,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2636,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2644,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -2652,28 +2647,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -2681,15 +2676,15 @@
     </row>
     <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -2697,36 +2692,36 @@
     </row>
     <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2736,7 +2731,7 @@
     </row>
     <row r="41" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
       <c r="H41" s="8" t="s">
@@ -2751,12 +2746,12 @@
     </row>
     <row r="42" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2766,7 +2761,7 @@
     </row>
     <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3"/>
       <c r="H43" s="8" t="s">
@@ -2781,12 +2776,12 @@
     </row>
     <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2796,7 +2791,7 @@
     </row>
     <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3"/>
       <c r="G45" s="3" t="s">
@@ -2816,7 +2811,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3"/>
       <c r="H46" s="3"/>
@@ -2829,10 +2824,10 @@
     </row>
     <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="3"/>
       <c r="H47" s="3"/>
@@ -2848,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="3"/>
       <c r="H48" s="3"/>
@@ -2861,10 +2856,10 @@
     </row>
     <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="3"/>
       <c r="H49" s="3"/>
@@ -2880,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="3"/>
       <c r="H50" s="3"/>
@@ -2893,10 +2888,10 @@
     </row>
     <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3"/>
       <c r="H51" s="3"/>
@@ -2910,7 +2905,7 @@
     <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="3"/>
       <c r="H52" s="3"/>
@@ -2927,7 +2922,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="3"/>
       <c r="H53" s="3"/>
@@ -2944,7 +2939,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2956,11 +2951,11 @@
     </row>
     <row r="55" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="3"/>
       <c r="F55" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2972,11 +2967,11 @@
     </row>
     <row r="56" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2988,7 +2983,7 @@
     </row>
     <row r="57" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="3"/>
       <c r="F57" s="8" t="s">
@@ -3004,11 +2999,11 @@
     </row>
     <row r="58" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3020,7 +3015,7 @@
     </row>
     <row r="59" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
@@ -3028,10 +3023,10 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3047,12 +3042,12 @@
         <v>5</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E63" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
@@ -3107,7 +3102,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3176,10 +3171,10 @@
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3217,10 +3212,10 @@
     </row>
     <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="3"/>
       <c r="H7" s="3"/>
